--- a/BalanceSheet/FBHS_bal.xlsx
+++ b/BalanceSheet/FBHS_bal.xlsx
@@ -511,19 +511,19 @@
         <v>958400000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-71300000.0</v>
+        <v>867000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-2400000.0</v>
+        <v>738000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-27700000.0</v>
+        <v>732000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>9600000.0</v>
+        <v>703000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>42900000.0</v>
+        <v>719000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>758800000.0</v>
@@ -1911,19 +1911,19 @@
         <v>599200000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>54400000.0</v>
+        <v>621000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>76600000.0</v>
+        <v>544000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>37500000.0</v>
+        <v>464000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-25600000.0</v>
+        <v>426000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>19800000.0</v>
+        <v>460000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>436500000.0</v>
@@ -3555,19 +3555,19 @@
         <v>167100000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2400000.0</v>
+        <v>130000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-5200000.0</v>
+        <v>149000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-12300000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>500000.0</v>
+        <v>157000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-5700000.0</v>
+        <v>140000000.0</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>160100000.0</v>
@@ -5845,10 +5845,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B40" s="0" t="n">
+        <v>2326700000.0</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2332000000.0</v>
@@ -5976,10 +5974,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B41" s="0" t="n">
+        <v>2682800000.0</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2752000000.0</v>
